--- a/nmadb/482109.xlsx
+++ b/nmadb/482109.xlsx
@@ -1,6 +1,239 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="315" windowWidth="21015" windowHeight="9705"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stagiaire_2018</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SMS: Changed based on #s provided in a forest plot - but matches #s in table. I think the table #s are a typo?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SMS: Changes based on #s provide in a forest plot-but matches #s in table. I think the table #s are a typo?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>RE-MODEL</t>
+  </si>
+  <si>
+    <t>RE-NOVATE</t>
+  </si>
+  <si>
+    <t>RE-MOBOLIZE</t>
+  </si>
+  <si>
+    <t>RE-NOVATE II</t>
+  </si>
+  <si>
+    <t>RECORD 1</t>
+  </si>
+  <si>
+    <t>RECORD 3</t>
+  </si>
+  <si>
+    <t>RECORD 4</t>
+  </si>
+  <si>
+    <t>ODIXA KNEE</t>
+  </si>
+  <si>
+    <t>ODIXA HIP BD</t>
+  </si>
+  <si>
+    <t>ODIXA HIP OD</t>
+  </si>
+  <si>
+    <t>ADVANCE-1</t>
+  </si>
+  <si>
+    <t>ADVANCE-2</t>
+  </si>
+  <si>
+    <t>ADVANCE-3</t>
+  </si>
+  <si>
+    <t>APROPOS</t>
+  </si>
+  <si>
+    <t>Harmful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Enoxaparin 40 mg OD</t>
+  </si>
+  <si>
+    <t>Enoxaparin 30 mg bid</t>
+  </si>
+  <si>
+    <t>Dabigatran</t>
+  </si>
+  <si>
+    <t>Rivaroxaban</t>
+  </si>
+  <si>
+    <t>Apixaban</t>
+  </si>
+  <si>
+    <t>Rivaroxaban bid</t>
+  </si>
+  <si>
+    <r>
+      <t>Outcome:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> total venous thromboembolism events (VTE)</t>
+    </r>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +307,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +341,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +375,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +510,658 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1402</v>
+      </c>
+      <c r="F2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>699</v>
+      </c>
+      <c r="F3">
+        <v>192</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2331</v>
+      </c>
+      <c r="F4">
+        <v>128</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1162</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1402</v>
+      </c>
+      <c r="F6">
+        <v>407</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>699</v>
+      </c>
+      <c r="F7">
+        <v>163</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1036</v>
+      </c>
+      <c r="F8">
+        <v>61</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1019</v>
+      </c>
+      <c r="F9">
+        <v>69</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2266</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2275</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1254</v>
+      </c>
+      <c r="F12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1277</v>
+      </c>
+      <c r="F13">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1584</v>
+      </c>
+      <c r="F14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1564</v>
+      </c>
+      <c r="F15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>102</v>
+      </c>
+      <c r="F16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>105</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>139</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>136</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>147</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>160</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1599</v>
+      </c>
+      <c r="F22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1596</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1528</v>
+      </c>
+      <c r="F24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1529</v>
+      </c>
+      <c r="F25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>2708</v>
+      </c>
+      <c r="F26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2699</v>
+      </c>
+      <c r="F27">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>153</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>152</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>